--- a/Book1 (Autosaved).xlsx
+++ b/Book1 (Autosaved).xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Payment Gateway</t>
   </si>
@@ -54,9 +53,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>merchant_nm</t>
-  </si>
-  <si>
     <t>Order_Product</t>
   </si>
   <si>
@@ -75,9 +71,6 @@
     <t xml:space="preserve">Orders </t>
   </si>
   <si>
-    <t xml:space="preserve">Owner(Merchant) </t>
-  </si>
-  <si>
     <t>owner_id</t>
   </si>
   <si>
@@ -88,6 +81,15 @@
   </si>
   <si>
     <t>customer_nm</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
   </si>
 </sst>
 </file>
@@ -425,7 +427,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,7 +452,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -466,13 +468,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -495,7 +497,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -505,18 +507,23 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -532,13 +539,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -546,15 +553,15 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
